--- a/Code/Results/Cases/Case_1_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9658965395736061</v>
+        <v>0.9578740567487785</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1318809569873736</v>
+        <v>0.2826761273864307</v>
       </c>
       <c r="E2">
-        <v>0.1072734373496314</v>
+        <v>0.2790990945624525</v>
       </c>
       <c r="F2">
-        <v>0.618565371171222</v>
+        <v>1.378316428980874</v>
       </c>
       <c r="G2">
-        <v>0.3499842932216524</v>
+        <v>0.7021962693790087</v>
       </c>
       <c r="H2">
-        <v>0.3175520556809843</v>
+        <v>0.8157896895588266</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1418467846220279</v>
+        <v>0.3486991817280822</v>
       </c>
       <c r="K2">
-        <v>1.323746489716086</v>
+        <v>0.4024466136276601</v>
       </c>
       <c r="L2">
-        <v>0.2781324806581011</v>
+        <v>0.1258011187399575</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.354231141542954</v>
+        <v>3.036201164720595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8556059020119449</v>
+        <v>0.9296918391557369</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1262878075262819</v>
+        <v>0.2826239691642058</v>
       </c>
       <c r="E3">
-        <v>0.1096033627656148</v>
+        <v>0.2812468761275255</v>
       </c>
       <c r="F3">
-        <v>0.6140277241347576</v>
+        <v>1.387076401537072</v>
       </c>
       <c r="G3">
-        <v>0.3463700318850016</v>
+        <v>0.7072734149181557</v>
       </c>
       <c r="H3">
-        <v>0.3217083075002876</v>
+        <v>0.8219323259065874</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1474819002440477</v>
+        <v>0.3519234999010887</v>
       </c>
       <c r="K3">
-        <v>1.170167803850347</v>
+        <v>0.3519541583104626</v>
       </c>
       <c r="L3">
-        <v>0.2420521644815068</v>
+        <v>0.1148024372222238</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.35491559306034</v>
+        <v>3.059571074234356</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7883221864592258</v>
+        <v>0.9127114802716108</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1229829676311596</v>
+        <v>0.2826914435864722</v>
       </c>
       <c r="E4">
-        <v>0.1111715815256495</v>
+        <v>0.2826616876326433</v>
       </c>
       <c r="F4">
-        <v>0.6123757964048266</v>
+        <v>1.393129313884096</v>
       </c>
       <c r="G4">
-        <v>0.3449655911237599</v>
+        <v>0.7108170665987785</v>
       </c>
       <c r="H4">
-        <v>0.3247719865608758</v>
+        <v>0.8260294332101523</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1511145252176469</v>
+        <v>0.3540163459668295</v>
       </c>
       <c r="K4">
-        <v>1.07573085343941</v>
+        <v>0.3208151669452377</v>
       </c>
       <c r="L4">
-        <v>0.2199005707610553</v>
+        <v>0.1080527022151614</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.358125270734391</v>
+        <v>3.075496523896987</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7610030697390471</v>
+        <v>0.905873922664739</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1216678118148877</v>
+        <v>0.2827440390969898</v>
       </c>
       <c r="E5">
-        <v>0.1118447087840853</v>
+        <v>0.2832624290474701</v>
       </c>
       <c r="F5">
-        <v>0.6119781481999667</v>
+        <v>1.395765613410376</v>
       </c>
       <c r="G5">
-        <v>0.3445898775997307</v>
+        <v>0.7123683196237991</v>
       </c>
       <c r="H5">
-        <v>0.3261455471789461</v>
+        <v>0.8277809698565903</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1526377538346591</v>
+        <v>0.3548976750406649</v>
       </c>
       <c r="K5">
-        <v>1.037203784514929</v>
+        <v>0.3080923436759804</v>
       </c>
       <c r="L5">
-        <v>0.2108719215243298</v>
+        <v>0.1053032180933684</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.360109613132593</v>
+        <v>3.082382791975945</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7564724841666361</v>
+        <v>0.9047435291374484</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1214513126320398</v>
+        <v>0.2827542907925746</v>
       </c>
       <c r="E6">
-        <v>0.1119585229687576</v>
+        <v>0.283363644088551</v>
       </c>
       <c r="F6">
-        <v>0.6119284846983959</v>
+        <v>1.396213621879248</v>
       </c>
       <c r="G6">
-        <v>0.3445391302859306</v>
+        <v>0.7126323777462673</v>
       </c>
       <c r="H6">
-        <v>0.3263810787332702</v>
+        <v>0.8280767620816007</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1528932616157714</v>
+        <v>0.3550457401090545</v>
       </c>
       <c r="K6">
-        <v>1.030803550375225</v>
+        <v>0.3059777351338084</v>
       </c>
       <c r="L6">
-        <v>0.2093725580809718</v>
+        <v>0.1048467401651152</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.360479250663118</v>
+        <v>3.083550205011363</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7879533609462328</v>
+        <v>0.9126189333308616</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1229651042721969</v>
+        <v>0.2826920511767312</v>
       </c>
       <c r="E7">
-        <v>0.1111805223300255</v>
+        <v>0.2826696914292697</v>
       </c>
       <c r="F7">
-        <v>0.6123693304836095</v>
+        <v>1.393164180690384</v>
       </c>
       <c r="G7">
-        <v>0.3449597387264944</v>
+        <v>0.7108375533490303</v>
       </c>
       <c r="H7">
-        <v>0.3247900090391767</v>
+        <v>0.8260527231976198</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1511348949490467</v>
+        <v>0.3540281165256127</v>
       </c>
       <c r="K7">
-        <v>1.075211449576955</v>
+        <v>0.3206437167049501</v>
       </c>
       <c r="L7">
-        <v>0.2197788168691801</v>
+        <v>0.1080156170307873</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.358149325981486</v>
+        <v>3.075587788816051</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9277718650377835</v>
+        <v>0.94809006371122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1299250073838891</v>
+        <v>0.2826375389411879</v>
       </c>
       <c r="E8">
-        <v>0.1080478962979559</v>
+        <v>0.2798197342383038</v>
       </c>
       <c r="F8">
-        <v>0.6167594314143088</v>
+        <v>1.381197010602037</v>
       </c>
       <c r="G8">
-        <v>0.3485639140576069</v>
+        <v>0.7038583968575622</v>
       </c>
       <c r="H8">
-        <v>0.3188767137363158</v>
+        <v>0.8178401612967861</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1437536305304441</v>
+        <v>0.3497874748709644</v>
       </c>
       <c r="K8">
-        <v>1.270816211381998</v>
+        <v>0.3850656362081679</v>
       </c>
       <c r="L8">
-        <v>0.2656902467800393</v>
+        <v>0.1220081678903284</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.353872781868361</v>
+        <v>3.043932059174892</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.2058930290207</v>
+        <v>1.020190384363588</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1446450184578012</v>
+        <v>0.2833168811184521</v>
       </c>
       <c r="E9">
-        <v>0.1030222881313705</v>
+        <v>0.2749915033959116</v>
       </c>
       <c r="F9">
-        <v>0.6348258150288473</v>
+        <v>1.363073586058221</v>
       </c>
       <c r="G9">
-        <v>0.3624871939962162</v>
+        <v>0.6935549431757835</v>
       </c>
       <c r="H9">
-        <v>0.3115107832628041</v>
+        <v>0.8043145146338375</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1306722401168026</v>
+        <v>0.3423672525352424</v>
       </c>
       <c r="K9">
-        <v>1.65371259470794</v>
+        <v>0.5102819989655529</v>
       </c>
       <c r="L9">
-        <v>0.3558456566685351</v>
+        <v>0.1494675222748043</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.368804247624098</v>
+        <v>2.994355697919218</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.41336020075687</v>
+        <v>1.074682598149678</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1561799171165319</v>
+        <v>0.2842912822583372</v>
       </c>
       <c r="E10">
-        <v>0.1000477968139197</v>
+        <v>0.2719054882064054</v>
       </c>
       <c r="F10">
-        <v>0.6545343590909454</v>
+        <v>1.353009267767135</v>
       </c>
       <c r="G10">
-        <v>0.3774677868650258</v>
+        <v>0.6880483094427348</v>
       </c>
       <c r="H10">
-        <v>0.3089258338932126</v>
+        <v>0.7959447883269775</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1219440961468941</v>
+        <v>0.3374591027289719</v>
       </c>
       <c r="K10">
-        <v>1.93525935354694</v>
+        <v>0.6015640175356509</v>
       </c>
       <c r="L10">
-        <v>0.4223247905958232</v>
+        <v>0.1696456637964587</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.395722273308621</v>
+        <v>2.965545417259193</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.508595997330076</v>
+        <v>1.099796775334767</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.161599434767794</v>
+        <v>0.284836935830981</v>
       </c>
       <c r="E11">
-        <v>0.09885896679218753</v>
+        <v>0.2706012450835082</v>
       </c>
       <c r="F11">
-        <v>0.6650547231169028</v>
+        <v>1.349135238458459</v>
       </c>
       <c r="G11">
-        <v>0.3854488897385551</v>
+        <v>0.6859915113777362</v>
       </c>
       <c r="H11">
-        <v>0.3084220547720236</v>
+        <v>0.7924765698010248</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1181728747043671</v>
+        <v>0.3353437298418438</v>
       </c>
       <c r="K11">
-        <v>2.063549727143027</v>
+        <v>0.6429286281858424</v>
       </c>
       <c r="L11">
-        <v>0.4526604913564682</v>
+        <v>0.1788243754380119</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.411838225826159</v>
+        <v>2.954090665783639</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.544797693989437</v>
+        <v>1.109353032087625</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1636777823212725</v>
+        <v>0.2850582094049514</v>
       </c>
       <c r="E12">
-        <v>0.09843315963138544</v>
+        <v>0.2701216463928056</v>
       </c>
       <c r="F12">
-        <v>0.6692759941853978</v>
+        <v>1.347769392803059</v>
       </c>
       <c r="G12">
-        <v>0.3886507654865596</v>
+        <v>0.6852771209645283</v>
       </c>
       <c r="H12">
-        <v>0.3083331365992876</v>
+        <v>0.7912119466888612</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1167741644290743</v>
+        <v>0.33455953266101</v>
       </c>
       <c r="K12">
-        <v>2.112174128134342</v>
+        <v>0.65856855410496</v>
       </c>
       <c r="L12">
-        <v>0.4641647992708187</v>
+        <v>0.1822998699663998</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.418533708058135</v>
+        <v>2.949990365330848</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.53699463201653</v>
+        <v>1.107292884140008</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1632289905208211</v>
+        <v>0.2850099040156806</v>
       </c>
       <c r="E13">
-        <v>0.09852376822557574</v>
+        <v>0.2702243015239585</v>
       </c>
       <c r="F13">
-        <v>0.6683560781552558</v>
+        <v>1.348059054505278</v>
       </c>
       <c r="G13">
-        <v>0.3879529990358748</v>
+        <v>0.685428109832813</v>
       </c>
       <c r="H13">
-        <v>0.3083476704723296</v>
+        <v>0.791482140237008</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1170740836627706</v>
+        <v>0.3347276746651886</v>
       </c>
       <c r="K13">
-        <v>2.101699836898803</v>
+        <v>0.6552012965445897</v>
       </c>
       <c r="L13">
-        <v>0.4616863365151147</v>
+        <v>0.1815513762273611</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.417064755535449</v>
+        <v>2.95086288270403</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.511571480594853</v>
+        <v>1.100582055329028</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1617698908427627</v>
+        <v>0.2848548470499139</v>
       </c>
       <c r="E14">
-        <v>0.09882344237209217</v>
+        <v>0.2705615020066237</v>
       </c>
       <c r="F14">
-        <v>0.6653971686526958</v>
+        <v>1.349020842642908</v>
       </c>
       <c r="G14">
-        <v>0.385708639696162</v>
+        <v>0.6859314457510806</v>
       </c>
       <c r="H14">
-        <v>0.3084126671876248</v>
+        <v>0.7923715525115114</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1180572091141334</v>
+        <v>0.3352788759608023</v>
       </c>
       <c r="K14">
-        <v>2.06754913407687</v>
+        <v>0.6442158197625361</v>
       </c>
       <c r="L14">
-        <v>0.4536066004056067</v>
+        <v>0.1791103134390255</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.412376973282875</v>
+        <v>2.953748574871554</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.496017483283794</v>
+        <v>1.096477456058494</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1608795890143284</v>
+        <v>0.2847617752725142</v>
       </c>
       <c r="E15">
-        <v>0.09901019908229536</v>
+        <v>0.2707699070367564</v>
       </c>
       <c r="F15">
-        <v>0.6636160981151917</v>
+        <v>1.349623137080364</v>
       </c>
       <c r="G15">
-        <v>0.3843576601172742</v>
+        <v>0.6862481507015019</v>
       </c>
       <c r="H15">
-        <v>0.3084659036718165</v>
+        <v>0.792922685623509</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1186632485558743</v>
+        <v>0.3356186960043122</v>
       </c>
       <c r="K15">
-        <v>2.046636923792136</v>
+        <v>0.6374837506013762</v>
       </c>
       <c r="L15">
-        <v>0.4486598238963069</v>
+        <v>0.1776150483544399</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.409583871210373</v>
+        <v>2.955547054401279</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.407154807552047</v>
+        <v>1.073047813087442</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1558293163970319</v>
+        <v>0.2842576762949562</v>
       </c>
       <c r="E16">
-        <v>0.1001288589293754</v>
+        <v>0.2719927249946679</v>
       </c>
       <c r="F16">
-        <v>0.6538792811395453</v>
+        <v>1.353276607265876</v>
       </c>
       <c r="G16">
-        <v>0.3769706723162898</v>
+        <v>0.6881917469954004</v>
       </c>
       <c r="H16">
-        <v>0.3089727191581915</v>
+        <v>0.7961782650466205</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1221946242460321</v>
+        <v>0.3375997066106811</v>
       </c>
       <c r="K16">
-        <v>1.926880653511034</v>
+        <v>0.5988574420321982</v>
       </c>
       <c r="L16">
-        <v>0.4203444511462777</v>
+        <v>0.1690457857431227</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.394749983736688</v>
+        <v>2.966327232102003</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.352870261512635</v>
+        <v>1.058757308828149</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1527761716305918</v>
+        <v>0.2839745980763126</v>
       </c>
       <c r="E17">
-        <v>0.1008577207229546</v>
+        <v>0.2727683711114501</v>
       </c>
       <c r="F17">
-        <v>0.6483138874853935</v>
+        <v>1.355698198190993</v>
       </c>
       <c r="G17">
-        <v>0.3727459530921493</v>
+        <v>0.6894988919331411</v>
       </c>
       <c r="H17">
-        <v>0.309459380984805</v>
+        <v>0.7982622935145258</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1244125406830916</v>
+        <v>0.3388450328356609</v>
       </c>
       <c r="K17">
-        <v>1.853477611989945</v>
+        <v>0.5751197923684686</v>
       </c>
       <c r="L17">
-        <v>0.4030002516674926</v>
+        <v>0.1637885525943119</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.386666269824531</v>
+        <v>2.973363379331772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.321727050370441</v>
+        <v>1.050568460011306</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1510362112445307</v>
+        <v>0.2838214213843031</v>
       </c>
       <c r="E18">
-        <v>0.1012923582783181</v>
+        <v>0.2732238790714145</v>
       </c>
       <c r="F18">
-        <v>0.6452582922712722</v>
+        <v>1.35715732995375</v>
       </c>
       <c r="G18">
-        <v>0.3704250354011194</v>
+        <v>0.6902929121911612</v>
       </c>
       <c r="H18">
-        <v>0.309802229675725</v>
+        <v>0.7994929035135172</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1257069372243214</v>
+        <v>0.3395723605882672</v>
       </c>
       <c r="K18">
-        <v>1.811277373584602</v>
+        <v>0.5614515166295462</v>
       </c>
       <c r="L18">
-        <v>0.39303296292141</v>
+        <v>0.160764704317927</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.382378779553648</v>
+        <v>2.977565807423034</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.311195774682432</v>
+        <v>1.04780114654892</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1504498212964194</v>
+        <v>0.2837712168485353</v>
       </c>
       <c r="E19">
-        <v>0.1014421443922835</v>
+        <v>0.2733797177134711</v>
       </c>
       <c r="F19">
-        <v>0.6442482966862642</v>
+        <v>1.357662756742997</v>
       </c>
       <c r="G19">
-        <v>0.3696575881581552</v>
+        <v>0.6905689983811882</v>
       </c>
       <c r="H19">
-        <v>0.3099289680609232</v>
+        <v>0.7999150531589336</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.126148389845179</v>
+        <v>0.3398205198371671</v>
       </c>
       <c r="K19">
-        <v>1.796992025242929</v>
+        <v>0.5568211245153805</v>
       </c>
       <c r="L19">
-        <v>0.3896595962134342</v>
+        <v>0.1597408834508656</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.3809882273044</v>
+        <v>2.979015373519303</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.358640579918898</v>
+        <v>1.060275388324044</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1530995055725555</v>
+        <v>0.2840037348456974</v>
       </c>
       <c r="E20">
-        <v>0.1007785313585412</v>
+        <v>0.2726848320282329</v>
       </c>
       <c r="F20">
-        <v>0.648891179666613</v>
+        <v>1.355433555032128</v>
       </c>
       <c r="G20">
-        <v>0.3731843138195003</v>
+        <v>0.6893553779490844</v>
       </c>
       <c r="H20">
-        <v>0.3094010249667036</v>
+        <v>0.7980371407406892</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1241744982445994</v>
+        <v>0.3387113224090239</v>
       </c>
       <c r="K20">
-        <v>1.861289408085611</v>
+        <v>0.5776482657489339</v>
       </c>
       <c r="L20">
-        <v>0.4048456542310248</v>
+        <v>0.1643481984324495</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.387489069964175</v>
+        <v>2.972598284349772</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.519035010930651</v>
+        <v>1.102551944089782</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1621977446580019</v>
+        <v>0.2848999941589341</v>
       </c>
       <c r="E21">
-        <v>0.09873475302425483</v>
+        <v>0.2704620704870369</v>
       </c>
       <c r="F21">
-        <v>0.6662597134926571</v>
+        <v>1.348735597434725</v>
       </c>
       <c r="G21">
-        <v>0.3863628895845181</v>
+        <v>0.6857818537872618</v>
       </c>
       <c r="H21">
-        <v>0.3083907687535117</v>
+        <v>0.7921089889250652</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1177676383508865</v>
+        <v>0.3351165177413273</v>
       </c>
       <c r="K21">
-        <v>2.077578731519679</v>
+        <v>0.6474431781809074</v>
       </c>
       <c r="L21">
-        <v>0.4559793301860111</v>
+        <v>0.1798273222442788</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.413737503282789</v>
+        <v>2.952894535701205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.624673697732902</v>
+        <v>1.130450269848296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1682967356461518</v>
+        <v>0.2855710859031859</v>
       </c>
       <c r="E22">
-        <v>0.09754149206660756</v>
+        <v>0.2690926445982615</v>
       </c>
       <c r="F22">
-        <v>0.679002072332068</v>
+        <v>1.344947711672013</v>
       </c>
       <c r="G22">
-        <v>0.3960287884450082</v>
+        <v>0.6838221656891932</v>
       </c>
       <c r="H22">
-        <v>0.3083268346300088</v>
+        <v>0.788518524213714</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1137519341153217</v>
+        <v>0.3328652985149976</v>
       </c>
       <c r="K22">
-        <v>2.219197271637739</v>
+        <v>0.6929181297251716</v>
       </c>
       <c r="L22">
-        <v>0.4894979933499997</v>
+        <v>0.1899420639228424</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.43436561866389</v>
+        <v>2.941400508261694</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.568212999573859</v>
+        <v>1.115536112760765</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1650271529295395</v>
+        <v>0.2852051291450692</v>
       </c>
       <c r="E23">
-        <v>0.09816506274308701</v>
+        <v>0.269815923830814</v>
       </c>
       <c r="F23">
-        <v>0.6720691557159739</v>
+        <v>1.346915463954247</v>
       </c>
       <c r="G23">
-        <v>0.3907694485822901</v>
+        <v>0.6848336931438013</v>
       </c>
       <c r="H23">
-        <v>0.3083045878604622</v>
+        <v>0.7904088641643199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1158792470137859</v>
+        <v>0.3340578413616502</v>
       </c>
       <c r="K23">
-        <v>2.143584382525319</v>
+        <v>0.6686604175088462</v>
       </c>
       <c r="L23">
-        <v>0.4715981561628837</v>
+        <v>0.1845438705540801</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.423025673494095</v>
+        <v>2.947408520462488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.35603161542673</v>
+        <v>1.059588980575853</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1529532786370993</v>
+        <v>0.283990532301587</v>
       </c>
       <c r="E24">
-        <v>0.1008142843200019</v>
+        <v>0.2727225702090603</v>
       </c>
       <c r="F24">
-        <v>0.648629738307406</v>
+        <v>1.355552991724593</v>
       </c>
       <c r="G24">
-        <v>0.3729857956479421</v>
+        <v>0.6894201281605845</v>
       </c>
       <c r="H24">
-        <v>0.3094272116931762</v>
+        <v>0.7981388311499131</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1242820572105883</v>
+        <v>0.3387717374648211</v>
       </c>
       <c r="K24">
-        <v>1.857757695576737</v>
+        <v>0.5765052088511879</v>
       </c>
       <c r="L24">
-        <v>0.404011335139117</v>
+        <v>0.1640951868781002</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.387115963578026</v>
+        <v>2.972943693952914</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.130159521252011</v>
+        <v>1.000416280950645</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1405414487237309</v>
+        <v>0.2830493449624711</v>
       </c>
       <c r="E25">
-        <v>0.1042585445810982</v>
+        <v>0.2762164916344023</v>
       </c>
       <c r="F25">
-        <v>0.6288589920995804</v>
+        <v>1.367405043129303</v>
       </c>
       <c r="G25">
-        <v>0.3579295577044235</v>
+        <v>0.6959800414851998</v>
       </c>
       <c r="H25">
-        <v>0.3130258609789678</v>
+        <v>0.8076979363624162</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1340586029517055</v>
+        <v>0.3442789952225755</v>
       </c>
       <c r="K25">
-        <v>1.550137858135457</v>
+        <v>0.4765306208675213</v>
       </c>
       <c r="L25">
-        <v>0.3314264836184577</v>
+        <v>0.1420377731562326</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.362095610210275</v>
+        <v>3.00642989212227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9578740567487785</v>
+        <v>0.9658965395737198</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2826761273864307</v>
+        <v>0.1318809569873025</v>
       </c>
       <c r="E2">
-        <v>0.2790990945624525</v>
+        <v>0.1072734373496473</v>
       </c>
       <c r="F2">
-        <v>1.378316428980874</v>
+        <v>0.6185653711712078</v>
       </c>
       <c r="G2">
-        <v>0.7021962693790087</v>
+        <v>0.3499842932215742</v>
       </c>
       <c r="H2">
-        <v>0.8157896895588266</v>
+        <v>0.3175520556809843</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3486991817280822</v>
+        <v>0.1418467846220319</v>
       </c>
       <c r="K2">
-        <v>0.4024466136276601</v>
+        <v>1.323746489716086</v>
       </c>
       <c r="L2">
-        <v>0.1258011187399575</v>
+        <v>0.2781324806581011</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.036201164720595</v>
+        <v>1.354231141542954</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9296918391557369</v>
+        <v>0.8556059020118596</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2826239691642058</v>
+        <v>0.1262878075264098</v>
       </c>
       <c r="E3">
-        <v>0.2812468761275255</v>
+        <v>0.1096033627656148</v>
       </c>
       <c r="F3">
-        <v>1.387076401537072</v>
+        <v>0.6140277241347505</v>
       </c>
       <c r="G3">
-        <v>0.7072734149181557</v>
+        <v>0.3463700318849945</v>
       </c>
       <c r="H3">
-        <v>0.8219323259065874</v>
+        <v>0.3217083075003941</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3519234999010887</v>
+        <v>0.1474819002439371</v>
       </c>
       <c r="K3">
-        <v>0.3519541583104626</v>
+        <v>1.170167803850376</v>
       </c>
       <c r="L3">
-        <v>0.1148024372222238</v>
+        <v>0.2420521644814642</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.059571074234356</v>
+        <v>1.354915593060326</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9127114802716108</v>
+        <v>0.7883221864593395</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2826914435864722</v>
+        <v>0.1229829676310885</v>
       </c>
       <c r="E4">
-        <v>0.2826616876326433</v>
+        <v>0.1111715815256229</v>
       </c>
       <c r="F4">
-        <v>1.393129313884096</v>
+        <v>0.6123757964048266</v>
       </c>
       <c r="G4">
-        <v>0.7108170665987785</v>
+        <v>0.3449655911237031</v>
       </c>
       <c r="H4">
-        <v>0.8260294332101523</v>
+        <v>0.3247719865608687</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3540163459668295</v>
+        <v>0.1511145252176682</v>
       </c>
       <c r="K4">
-        <v>0.3208151669452377</v>
+        <v>1.075730853439381</v>
       </c>
       <c r="L4">
-        <v>0.1080527022151614</v>
+        <v>0.2199005707610553</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.075496523896987</v>
+        <v>1.358125270734391</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.905873922664739</v>
+        <v>0.761003069738905</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2827440390969898</v>
+        <v>0.1216678118148664</v>
       </c>
       <c r="E5">
-        <v>0.2832624290474701</v>
+        <v>0.1118447087840853</v>
       </c>
       <c r="F5">
-        <v>1.395765613410376</v>
+        <v>0.6119781481999595</v>
       </c>
       <c r="G5">
-        <v>0.7123683196237991</v>
+        <v>0.344589877599752</v>
       </c>
       <c r="H5">
-        <v>0.8277809698565903</v>
+        <v>0.3261455471788253</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3548976750406649</v>
+        <v>0.1526377538346884</v>
       </c>
       <c r="K5">
-        <v>0.3080923436759804</v>
+        <v>1.037203784515015</v>
       </c>
       <c r="L5">
-        <v>0.1053032180933684</v>
+        <v>0.2108719215243156</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.082382791975945</v>
+        <v>1.360109613132636</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9047435291374484</v>
+        <v>0.7564724841666646</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2827542907925746</v>
+        <v>0.1214513126320469</v>
       </c>
       <c r="E6">
-        <v>0.283363644088551</v>
+        <v>0.1119585229687612</v>
       </c>
       <c r="F6">
-        <v>1.396213621879248</v>
+        <v>0.611928484698403</v>
       </c>
       <c r="G6">
-        <v>0.7126323777462673</v>
+        <v>0.3445391302859164</v>
       </c>
       <c r="H6">
-        <v>0.8280767620816007</v>
+        <v>0.3263810787331494</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3550457401090545</v>
+        <v>0.1528932616156862</v>
       </c>
       <c r="K6">
-        <v>0.3059777351338084</v>
+        <v>1.03080355037531</v>
       </c>
       <c r="L6">
-        <v>0.1048467401651152</v>
+        <v>0.2093725580810144</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.083550205011363</v>
+        <v>1.360479250663161</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9126189333308616</v>
+        <v>0.7879533609462044</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2826920511767312</v>
+        <v>0.1229651042723248</v>
       </c>
       <c r="E7">
-        <v>0.2826696914292697</v>
+        <v>0.111180522330061</v>
       </c>
       <c r="F7">
-        <v>1.393164180690384</v>
+        <v>0.6123693304836166</v>
       </c>
       <c r="G7">
-        <v>0.7108375533490303</v>
+        <v>0.3449597387265513</v>
       </c>
       <c r="H7">
-        <v>0.8260527231976198</v>
+        <v>0.3247900090391767</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3540281165256127</v>
+        <v>0.1511348949490601</v>
       </c>
       <c r="K7">
-        <v>0.3206437167049501</v>
+        <v>1.075211449576813</v>
       </c>
       <c r="L7">
-        <v>0.1080156170307873</v>
+        <v>0.2197788168692796</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.075587788816051</v>
+        <v>1.358149325981458</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.94809006371122</v>
+        <v>0.9277718650380109</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2826375389411879</v>
+        <v>0.1299250073840383</v>
       </c>
       <c r="E8">
-        <v>0.2798197342383038</v>
+        <v>0.1080478962979434</v>
       </c>
       <c r="F8">
-        <v>1.381197010602037</v>
+        <v>0.616759431414323</v>
       </c>
       <c r="G8">
-        <v>0.7038583968575622</v>
+        <v>0.3485639140575501</v>
       </c>
       <c r="H8">
-        <v>0.8178401612967861</v>
+        <v>0.3188767137362021</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3497874748709644</v>
+        <v>0.1437536305304978</v>
       </c>
       <c r="K8">
-        <v>0.3850656362081679</v>
+        <v>1.270816211381998</v>
       </c>
       <c r="L8">
-        <v>0.1220081678903284</v>
+        <v>0.2656902467799824</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.043932059174892</v>
+        <v>1.353872781868318</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.020190384363588</v>
+        <v>1.205893029020558</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2833168811184521</v>
+        <v>0.1446450184580215</v>
       </c>
       <c r="E9">
-        <v>0.2749915033959116</v>
+        <v>0.1030222881313829</v>
       </c>
       <c r="F9">
-        <v>1.363073586058221</v>
+        <v>0.634825815028826</v>
       </c>
       <c r="G9">
-        <v>0.6935549431757835</v>
+        <v>0.3624871939962162</v>
       </c>
       <c r="H9">
-        <v>0.8043145146338375</v>
+        <v>0.3115107832629178</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3423672525352424</v>
+        <v>0.130672240116839</v>
       </c>
       <c r="K9">
-        <v>0.5102819989655529</v>
+        <v>1.653712594707912</v>
       </c>
       <c r="L9">
-        <v>0.1494675222748043</v>
+        <v>0.3558456566685209</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.994355697919218</v>
+        <v>1.368804247624027</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.074682598149678</v>
+        <v>1.413360200756898</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2842912822583372</v>
+        <v>0.1561799171165887</v>
       </c>
       <c r="E10">
-        <v>0.2719054882064054</v>
+        <v>0.1000477968139055</v>
       </c>
       <c r="F10">
-        <v>1.353009267767135</v>
+        <v>0.6545343590909098</v>
       </c>
       <c r="G10">
-        <v>0.6880483094427348</v>
+        <v>0.3774677868650684</v>
       </c>
       <c r="H10">
-        <v>0.7959447883269775</v>
+        <v>0.3089258338931984</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3374591027289719</v>
+        <v>0.1219440961469296</v>
       </c>
       <c r="K10">
-        <v>0.6015640175356509</v>
+        <v>1.935259353546911</v>
       </c>
       <c r="L10">
-        <v>0.1696456637964587</v>
+        <v>0.4223247905958516</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.965545417259193</v>
+        <v>1.395722273308593</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.099796775334767</v>
+        <v>1.508595997330104</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.284836935830981</v>
+        <v>0.1615994347679077</v>
       </c>
       <c r="E11">
-        <v>0.2706012450835082</v>
+        <v>0.09885896679220352</v>
       </c>
       <c r="F11">
-        <v>1.349135238458459</v>
+        <v>0.6650547231168744</v>
       </c>
       <c r="G11">
-        <v>0.6859915113777362</v>
+        <v>0.3854488897385409</v>
       </c>
       <c r="H11">
-        <v>0.7924765698010248</v>
+        <v>0.3084220547720236</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3353437298418438</v>
+        <v>0.1181728747042783</v>
       </c>
       <c r="K11">
-        <v>0.6429286281858424</v>
+        <v>2.063549727143112</v>
       </c>
       <c r="L11">
-        <v>0.1788243754380119</v>
+        <v>0.4526604913564398</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.954090665783639</v>
+        <v>1.411838225826102</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.109353032087625</v>
+        <v>1.544797693989352</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2850582094049514</v>
+        <v>0.1636777823213151</v>
       </c>
       <c r="E12">
-        <v>0.2701216463928056</v>
+        <v>0.09843315963139432</v>
       </c>
       <c r="F12">
-        <v>1.347769392803059</v>
+        <v>0.6692759941853765</v>
       </c>
       <c r="G12">
-        <v>0.6852771209645283</v>
+        <v>0.3886507654866165</v>
       </c>
       <c r="H12">
-        <v>0.7912119466888612</v>
+        <v>0.3083331365993018</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.33455953266101</v>
+        <v>0.1167741644290805</v>
       </c>
       <c r="K12">
-        <v>0.65856855410496</v>
+        <v>2.112174128134285</v>
       </c>
       <c r="L12">
-        <v>0.1822998699663998</v>
+        <v>0.4641647992707902</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.949990365330848</v>
+        <v>1.418533708058135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.107292884140008</v>
+        <v>1.536994632016672</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2850099040156806</v>
+        <v>0.1632289905206079</v>
       </c>
       <c r="E13">
-        <v>0.2702243015239585</v>
+        <v>0.09852376822555087</v>
       </c>
       <c r="F13">
-        <v>1.348059054505278</v>
+        <v>0.6683560781552416</v>
       </c>
       <c r="G13">
-        <v>0.685428109832813</v>
+        <v>0.3879529990359316</v>
       </c>
       <c r="H13">
-        <v>0.791482140237008</v>
+        <v>0.3083476704722159</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3347276746651886</v>
+        <v>0.1170740836628834</v>
       </c>
       <c r="K13">
-        <v>0.6552012965445897</v>
+        <v>2.101699836898803</v>
       </c>
       <c r="L13">
-        <v>0.1815513762273611</v>
+        <v>0.4616863365150721</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.95086288270403</v>
+        <v>1.417064755535421</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.100582055329028</v>
+        <v>1.511571480594938</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2848548470499139</v>
+        <v>0.1617698908428054</v>
       </c>
       <c r="E14">
-        <v>0.2705615020066237</v>
+        <v>0.09882344237210461</v>
       </c>
       <c r="F14">
-        <v>1.349020842642908</v>
+        <v>0.6653971686526887</v>
       </c>
       <c r="G14">
-        <v>0.6859314457510806</v>
+        <v>0.3857086396961336</v>
       </c>
       <c r="H14">
-        <v>0.7923715525115114</v>
+        <v>0.308412667187639</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3352788759608023</v>
+        <v>0.1180572091142711</v>
       </c>
       <c r="K14">
-        <v>0.6442158197625361</v>
+        <v>2.067549134076842</v>
       </c>
       <c r="L14">
-        <v>0.1791103134390255</v>
+        <v>0.4536066004055925</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.953748574871554</v>
+        <v>1.412376973282818</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.096477456058494</v>
+        <v>1.496017483283907</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2847617752725142</v>
+        <v>0.1608795890145558</v>
       </c>
       <c r="E15">
-        <v>0.2707699070367564</v>
+        <v>0.09901019908229536</v>
       </c>
       <c r="F15">
-        <v>1.349623137080364</v>
+        <v>0.6636160981151917</v>
       </c>
       <c r="G15">
-        <v>0.6862481507015019</v>
+        <v>0.3843576601172742</v>
       </c>
       <c r="H15">
-        <v>0.792922685623509</v>
+        <v>0.3084659036718165</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3356186960043122</v>
+        <v>0.1186632485559356</v>
       </c>
       <c r="K15">
-        <v>0.6374837506013762</v>
+        <v>2.046636923792107</v>
       </c>
       <c r="L15">
-        <v>0.1776150483544399</v>
+        <v>0.4486598238963779</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.955547054401279</v>
+        <v>1.409583871210373</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.073047813087442</v>
+        <v>1.407154807551905</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2842576762949562</v>
+        <v>0.1558293163970319</v>
       </c>
       <c r="E16">
-        <v>0.2719927249946679</v>
+        <v>0.1001288589293736</v>
       </c>
       <c r="F16">
-        <v>1.353276607265876</v>
+        <v>0.6538792811395382</v>
       </c>
       <c r="G16">
-        <v>0.6881917469954004</v>
+        <v>0.3769706723162898</v>
       </c>
       <c r="H16">
-        <v>0.7961782650466205</v>
+        <v>0.3089727191581915</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3375997066106811</v>
+        <v>0.1221946242460028</v>
       </c>
       <c r="K16">
-        <v>0.5988574420321982</v>
+        <v>1.926880653511262</v>
       </c>
       <c r="L16">
-        <v>0.1690457857431227</v>
+        <v>0.4203444511464056</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.966327232102003</v>
+        <v>1.394749983736745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.058757308828149</v>
+        <v>1.352870261512635</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2839745980763126</v>
+        <v>0.1527761716305776</v>
       </c>
       <c r="E17">
-        <v>0.2727683711114501</v>
+        <v>0.1008577207229511</v>
       </c>
       <c r="F17">
-        <v>1.355698198190993</v>
+        <v>0.6483138874854006</v>
       </c>
       <c r="G17">
-        <v>0.6894988919331411</v>
+        <v>0.3727459530921351</v>
       </c>
       <c r="H17">
-        <v>0.7982622935145258</v>
+        <v>0.3094593809846913</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3388450328356609</v>
+        <v>0.12441254068312</v>
       </c>
       <c r="K17">
-        <v>0.5751197923684686</v>
+        <v>1.853477611989859</v>
       </c>
       <c r="L17">
-        <v>0.1637885525943119</v>
+        <v>0.4030002516674926</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.973363379331772</v>
+        <v>1.386666269824502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.050568460011306</v>
+        <v>1.321727050370583</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2838214213843031</v>
+        <v>0.1510362112444312</v>
       </c>
       <c r="E18">
-        <v>0.2732238790714145</v>
+        <v>0.1012923582783198</v>
       </c>
       <c r="F18">
-        <v>1.35715732995375</v>
+        <v>0.6452582922713006</v>
       </c>
       <c r="G18">
-        <v>0.6902929121911612</v>
+        <v>0.370425035401091</v>
       </c>
       <c r="H18">
-        <v>0.7994929035135172</v>
+        <v>0.309802229675725</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3395723605882672</v>
+        <v>0.1257069372243551</v>
       </c>
       <c r="K18">
-        <v>0.5614515166295462</v>
+        <v>1.81127737358463</v>
       </c>
       <c r="L18">
-        <v>0.160764704317927</v>
+        <v>0.393032962921481</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.977565807423034</v>
+        <v>1.382378779553648</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.04780114654892</v>
+        <v>1.311195774682574</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2837712168485353</v>
+        <v>0.1504498212960641</v>
       </c>
       <c r="E19">
-        <v>0.2733797177134711</v>
+        <v>0.1014421443922995</v>
       </c>
       <c r="F19">
-        <v>1.357662756742997</v>
+        <v>0.6442482966862499</v>
       </c>
       <c r="G19">
-        <v>0.6905689983811882</v>
+        <v>0.369657588158212</v>
       </c>
       <c r="H19">
-        <v>0.7999150531589336</v>
+        <v>0.3099289680609232</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3398205198371671</v>
+        <v>0.1261483898451825</v>
       </c>
       <c r="K19">
-        <v>0.5568211245153805</v>
+        <v>1.796992025242986</v>
       </c>
       <c r="L19">
-        <v>0.1597408834508656</v>
+        <v>0.3896595962133773</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.979015373519303</v>
+        <v>1.380988227304414</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.060275388324044</v>
+        <v>1.35864057991904</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2840037348456974</v>
+        <v>0.1530995055722997</v>
       </c>
       <c r="E20">
-        <v>0.2726848320282329</v>
+        <v>0.1007785313585536</v>
       </c>
       <c r="F20">
-        <v>1.355433555032128</v>
+        <v>0.6488911796666059</v>
       </c>
       <c r="G20">
-        <v>0.6893553779490844</v>
+        <v>0.373184313819479</v>
       </c>
       <c r="H20">
-        <v>0.7980371407406892</v>
+        <v>0.3094010249665899</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3387113224090239</v>
+        <v>0.1241744982444759</v>
       </c>
       <c r="K20">
-        <v>0.5776482657489339</v>
+        <v>1.861289408085696</v>
       </c>
       <c r="L20">
-        <v>0.1643481984324495</v>
+        <v>0.404845654230968</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.972598284349772</v>
+        <v>1.387489069964118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.102551944089782</v>
+        <v>1.519035010930509</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2848999941589341</v>
+        <v>0.1621977446577318</v>
       </c>
       <c r="E21">
-        <v>0.2704620704870369</v>
+        <v>0.09873475302427082</v>
       </c>
       <c r="F21">
-        <v>1.348735597434725</v>
+        <v>0.66625971349265</v>
       </c>
       <c r="G21">
-        <v>0.6857818537872618</v>
+        <v>0.386362889584575</v>
       </c>
       <c r="H21">
-        <v>0.7921089889250652</v>
+        <v>0.3083907687535117</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3351165177413273</v>
+        <v>0.1177676383508377</v>
       </c>
       <c r="K21">
-        <v>0.6474431781809074</v>
+        <v>2.077578731519679</v>
       </c>
       <c r="L21">
-        <v>0.1798273222442788</v>
+        <v>0.4559793301860395</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.952894535701205</v>
+        <v>1.413737503282761</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.130450269848296</v>
+        <v>1.624673697732902</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2855710859031859</v>
+        <v>0.1682967356461376</v>
       </c>
       <c r="E22">
-        <v>0.2690926445982615</v>
+        <v>0.09754149206661111</v>
       </c>
       <c r="F22">
-        <v>1.344947711672013</v>
+        <v>0.6790020723320538</v>
       </c>
       <c r="G22">
-        <v>0.6838221656891932</v>
+        <v>0.3960287884450793</v>
       </c>
       <c r="H22">
-        <v>0.788518524213714</v>
+        <v>0.3083268346300088</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3328652985149976</v>
+        <v>0.1137519341152462</v>
       </c>
       <c r="K22">
-        <v>0.6929181297251716</v>
+        <v>2.219197271637825</v>
       </c>
       <c r="L22">
-        <v>0.1899420639228424</v>
+        <v>0.4894979933500423</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.941400508261694</v>
+        <v>1.434365618663975</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.115536112760765</v>
+        <v>1.568212999573831</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2852051291450692</v>
+        <v>0.1650271529294116</v>
       </c>
       <c r="E23">
-        <v>0.269815923830814</v>
+        <v>0.09816506274308878</v>
       </c>
       <c r="F23">
-        <v>1.346915463954247</v>
+        <v>0.6720691557159526</v>
       </c>
       <c r="G23">
-        <v>0.6848336931438013</v>
+        <v>0.3907694485823185</v>
       </c>
       <c r="H23">
-        <v>0.7904088641643199</v>
+        <v>0.308304587860448</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3340578413616502</v>
+        <v>0.1158792470137886</v>
       </c>
       <c r="K23">
-        <v>0.6686604175088462</v>
+        <v>2.143584382525347</v>
       </c>
       <c r="L23">
-        <v>0.1845438705540801</v>
+        <v>0.4715981561629548</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.947408520462488</v>
+        <v>1.423025673494067</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.059588980575853</v>
+        <v>1.356031615426588</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.283990532301587</v>
+        <v>0.152953278637213</v>
       </c>
       <c r="E24">
-        <v>0.2727225702090603</v>
+        <v>0.1008142843200162</v>
       </c>
       <c r="F24">
-        <v>1.355552991724593</v>
+        <v>0.6486297383073989</v>
       </c>
       <c r="G24">
-        <v>0.6894201281605845</v>
+        <v>0.3729857956480132</v>
       </c>
       <c r="H24">
-        <v>0.7981388311499131</v>
+        <v>0.309427211693162</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3387717374648211</v>
+        <v>0.1242820572106806</v>
       </c>
       <c r="K24">
-        <v>0.5765052088511879</v>
+        <v>1.857757695576737</v>
       </c>
       <c r="L24">
-        <v>0.1640951868781002</v>
+        <v>0.4040113351391028</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.972943693952914</v>
+        <v>1.387115963577997</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.000416280950645</v>
+        <v>1.130159521251784</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2830493449624711</v>
+        <v>0.1405414487235745</v>
       </c>
       <c r="E25">
-        <v>0.2762164916344023</v>
+        <v>0.1042585445811124</v>
       </c>
       <c r="F25">
-        <v>1.367405043129303</v>
+        <v>0.6288589920995733</v>
       </c>
       <c r="G25">
-        <v>0.6959800414851998</v>
+        <v>0.3579295577044164</v>
       </c>
       <c r="H25">
-        <v>0.8076979363624162</v>
+        <v>0.3130258609788541</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3442789952225755</v>
+        <v>0.1340586029518405</v>
       </c>
       <c r="K25">
-        <v>0.4765306208675213</v>
+        <v>1.550137858135514</v>
       </c>
       <c r="L25">
-        <v>0.1420377731562326</v>
+        <v>0.3314264836184151</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.00642989212227</v>
+        <v>1.362095610210275</v>
       </c>
     </row>
   </sheetData>
